--- a/Personal Doc/HDFC EMI.xlsx
+++ b/Personal Doc/HDFC EMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\768795\Downloads\PERSONAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahad.zafar\Downloads\MyGitHub\MyProject4\Personal Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E3878-DD0F-44FE-B793-F475A882DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A21A5-3C92-4213-B6B9-1D0EDAB148EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,13 +1611,13 @@
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>243</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>6</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>6</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>7</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>8</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>8</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>8</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>8</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>8</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>8</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>9</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>9</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>9</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>9</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>9</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>9</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>9</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>9</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>9</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>9</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>9</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>9</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>9</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>9</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>9</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>9</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>9</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>9</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>9</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>10</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>10</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>10</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>10</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>10</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>10</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>10</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>10</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>10</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>10</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>10</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>10</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>10</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>10</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>10</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>10</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>10</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>10</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>10</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>10</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>10</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>11</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>11</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>11</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>11</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>11</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>11</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>11</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>11</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>11</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>11</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>11</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>11</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>11</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>11</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>11</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>11</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>11</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>11</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>11</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>12</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>12</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>12</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>12</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>12</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>12</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>12</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>12</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>12</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>12</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>12</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>12</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>12</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>12</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>12</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>12</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>12</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>12</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>12</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>12</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>12</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>12</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>13</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>13</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>13</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>13</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>13</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>13</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>13</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>13</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>13</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>13</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>13</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>13</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>13</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>13</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>13</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>13</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>13</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>13</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>13</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>14</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>14</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>14</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>14</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>14</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>14</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>14</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>14</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>14</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>14</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>14</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>14</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>14</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>14</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>14</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>14</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>14</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>14</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>14</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>14</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>14</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>14</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>15</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>15</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>15</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>15</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>15</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>15</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>15</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>15</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>15</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>15</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>15</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>15</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>15</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>15</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>15</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>15</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>15</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>15</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>15</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>15</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>15</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>15</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>16</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>16</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>16</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>16</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>16</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>16</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>16</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>16</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>16</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>16</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>16</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>16</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>16</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>16</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>16</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>16</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>16</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>16</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>16</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>16</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>16</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>17</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>17</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>17</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>17</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>17</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>17</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>17</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>17</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>17</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>17</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>17</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>17</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>17</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>17</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>17</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>17</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>17</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>17</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>17</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>17</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>17</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>17</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>18</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>18</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>18</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>18</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>18</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>18</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>18</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>18</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>18</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>18</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>18</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>18</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>18</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>18</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>18</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>18</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>18</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>18</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>19</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>19</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>20</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>20</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>20</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>20</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>20</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>20</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>20</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>21</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>21</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>21</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>21</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>21</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>22</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>22</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>22</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>22</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>22</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>22</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>22</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>22</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>23</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>23</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>23</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>23</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>23</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>23</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>23</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>24</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>24</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>24</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>24</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>24</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>24</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>24</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>25</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>25</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>25</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>25</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>25</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>25</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>25</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>25</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>25</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>25</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>25</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>26</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>26</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>26</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>26</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>26</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>26</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>27</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>27</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>27</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>27</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>27</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>27</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>27</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>27</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>27</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>27</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>27</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>27</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>27</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>27</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>27</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>27</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>27</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>27</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>27</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>27</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>27</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>27</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>27</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>27</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>27</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>27</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>27</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>27</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>27</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>27</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>27</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>27</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>28</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>28</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>28</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>28</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>28</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>28</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>28</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>28</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>28</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>28</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>28</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>29</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>29</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>29</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>29</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>29</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>29</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>29</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>29</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>29</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>29</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>29</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>30</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>30</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>30</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>30</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>30</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>30</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>30</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>31</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>31</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>31</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>31</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>32</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>32</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>32</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>32</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>32</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>32</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>32</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>32</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>33</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>33</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>33</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>33</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>33</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>33</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>33</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>33</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>34</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>34</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>34</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>35</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>35</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>35</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>36</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>36</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>36</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>36</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>36</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>36</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>36</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>37</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>37</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>37</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>37</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>37</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>37</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>37</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>37</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>38</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>38</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>38</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>38</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>38</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>38</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>38</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>38</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>38</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>38</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>38</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>38</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>38</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>38</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>38</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>38</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>38</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>38</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>39</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>39</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>39</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>39</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>39</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>40</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>40</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>40</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>40</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>40</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>41</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>41</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>41</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>41</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>41</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>42</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>42</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>42</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>42</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>42</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>42</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>43</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>43</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>43</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>43</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>43</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>43</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>43</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>43</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>43</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>43</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>43</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>43</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>43</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>43</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>43</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>43</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>43</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>43</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>43</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>43</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>43</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>43</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>43</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>43</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>43</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>43</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>43</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>43</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>43</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>45</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>45</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>45</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>46</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>46</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>46</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>46</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>46</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>46</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>47</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>47</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>47</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>48</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>48</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>48</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>49</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>49</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>49</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>49</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>49</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>49</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>50</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>50</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>50</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>50</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>50</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>50</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>50</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>50</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>50</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>50</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>50</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>50</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>50</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>50</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>50</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>51</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>51</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>51</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>51</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>51</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>52</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>52</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>52</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>52</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>52</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>53</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>53</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>54</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>54</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>54</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>54</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>55</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>55</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>55</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>56</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>56</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>56</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>56</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>56</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>56</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>56</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>56</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>56</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>56</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>56</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>56</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>56</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>56</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>56</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>56</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>56</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>57</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>57</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>57</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>57</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>57</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>57</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>57</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>57</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>57</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>57</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>57</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>58</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>58</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>58</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>58</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>59</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>59</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>59</v>
       </c>
@@ -6690,20 +6690,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R9" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
         <v>252</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
     </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -6788,7 +6788,7 @@
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>245</v>
       </c>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="AA4" s="34"/>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>246</v>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="Z5" s="34"/>
       <c r="AA5" s="34"/>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>247</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>248</v>
       </c>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>249</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>250</v>
       </c>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="AA9" s="34"/>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>251</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>3901.68</v>
       </c>
     </row>
-    <row r="11" spans="3:27" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:27" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F11" s="27">
         <f>SUM(F4:F10)</f>
         <v>1274.46</v>
@@ -7242,7 +7242,7 @@
         <v>4026.17</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>SUM(F4:F10)*12</f>
@@ -7270,7 +7270,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="T13">
         <v>3</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="V14" s="45" t="s">
         <v>301</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="S15">
         <v>5190.54</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>2741.62</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>1055</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>44433</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:25" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>263</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:25" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>264</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="20" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U20" s="45" t="s">
         <v>278</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="21" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U21" s="45" t="s">
         <v>279</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U22" s="45" t="s">
         <v>280</v>
       </c>
@@ -7429,26 +7429,35 @@
         <v>107.28</v>
       </c>
     </row>
-    <row r="23" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U23" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="V23" s="32">
+        <v>44632</v>
+      </c>
+      <c r="W23">
+        <v>1100</v>
+      </c>
+      <c r="X23">
+        <v>1050</v>
+      </c>
       <c r="Y23">
         <f>SUM(IMSUB(W23,X23),Y22)</f>
-        <v>107.28</v>
-      </c>
-    </row>
-    <row r="24" spans="7:25" x14ac:dyDescent="0.35">
+        <v>157.28</v>
+      </c>
+    </row>
+    <row r="24" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U24" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U25" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="7:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="7:25" x14ac:dyDescent="0.25">
       <c r="U26" s="4" t="s">
         <v>284</v>
       </c>
@@ -7468,19 +7477,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>257</v>
       </c>
@@ -7488,7 +7497,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>258</v>
       </c>
@@ -7496,7 +7505,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>260</v>
       </c>
@@ -7504,7 +7513,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>259</v>
       </c>
@@ -7512,7 +7521,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <f>SUM(B1:B4)</f>
         <v>2720</v>
@@ -7544,7 +7553,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="11">
         <v>3758.95</v>
       </c>
@@ -7572,7 +7581,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="11">
         <v>3805.94</v>
       </c>
@@ -7600,7 +7609,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="11">
         <v>3853.51</v>
       </c>
@@ -7628,7 +7637,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="11">
         <v>3901.68</v>
       </c>
@@ -7656,7 +7665,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="11">
         <v>3950.45</v>
       </c>
@@ -7684,7 +7693,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J13" s="4">
         <f>SUM(J5:J12)</f>
         <v>24066.04</v>
@@ -7694,17 +7703,17 @@
         <v>6873.04</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q14" s="4">
         <f>SUM(Q6:Q13)</f>
         <v>12513.74</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I16" s="23"/>
     </row>
   </sheetData>
@@ -7721,14 +7730,14 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>287</v>
       </c>
@@ -7745,7 +7754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>24790</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>2</v>
       </c>
@@ -7779,7 +7788,7 @@
         <v>12395.833333333334</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>3</v>
       </c>
@@ -7796,7 +7805,7 @@
         <v>27337.5</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>4</v>
       </c>
@@ -7813,7 +7822,7 @@
         <v>-2975</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>5</v>
       </c>
@@ -7830,7 +7839,7 @@
         <v>3333.25</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>6</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>7</v>
       </c>
@@ -7864,10 +7873,10 @@
         <v>-2975</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G15" s="36">
         <f>SUBTOTAL(109,G7:G13)</f>
         <v>46250</v>
@@ -7881,22 +7890,22 @@
         <v>65239.916666666672</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G16" s="37">
         <v>46250</v>
       </c>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" s="37">
         <v>-1944</v>
       </c>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" s="37">
         <v>-1944</v>
       </c>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" s="37">
         <v>-200</v>
       </c>
@@ -7907,7 +7916,7 @@
         <v>74165</v>
       </c>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="37">
         <v>1800</v>
       </c>
@@ -7918,7 +7927,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="38">
         <f>SUM(G16:G20)</f>
         <v>43962</v>
@@ -7930,7 +7939,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="K22" s="4">
         <f>SUM(K19:K21)</f>
         <v>68215</v>

--- a/Personal Doc/HDFC EMI.xlsx
+++ b/Personal Doc/HDFC EMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahad.zafar\Downloads\MyGitHub\MyProject4\Personal Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A21A5-3C92-4213-B6B9-1D0EDAB148EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2FE212-895B-42D3-8265-31E9A838B491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="305">
   <si>
     <t>Objekt 2</t>
   </si>
@@ -946,6 +946,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>Ajaz</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1031,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,6 +1128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1201,7 +1216,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1286,6 +1301,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{743094A8-764C-4F89-9AD7-862E709C3EA6}"/>
@@ -6688,10 +6704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AA26"/>
+  <dimension ref="C2:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="T10" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6701,9 +6717,10 @@
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:33" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
         <v>252</v>
       </c>
@@ -6757,8 +6774,22 @@
       </c>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
-    </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC2" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="21"/>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.25">
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -6787,8 +6818,14 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>245</v>
       </c>
@@ -6847,8 +6884,22 @@
         <v>14.58</v>
       </c>
       <c r="AA4" s="34"/>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="46">
+        <v>12.23</v>
+      </c>
+      <c r="AC4" s="46">
+        <v>12.23</v>
+      </c>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="21">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="21"/>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>246</v>
       </c>
@@ -6882,8 +6933,14 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
       <c r="AA5" s="34"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>247</v>
       </c>
@@ -6935,8 +6992,18 @@
       <c r="AA6" s="34">
         <v>26.34</v>
       </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="46">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>248</v>
       </c>
@@ -6990,8 +7057,22 @@
         <v>67.930000000000007</v>
       </c>
       <c r="AA7" s="34"/>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="46">
+        <v>49.38</v>
+      </c>
+      <c r="AC7" s="46">
+        <v>49.38</v>
+      </c>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="21">
+        <v>41.26</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>41.26</v>
+      </c>
+      <c r="AG7" s="21"/>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>249</v>
       </c>
@@ -7046,8 +7127,18 @@
       <c r="AA8" s="34">
         <v>98.15</v>
       </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="46">
+        <v>54.68</v>
+      </c>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46">
+        <v>54.68</v>
+      </c>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>250</v>
       </c>
@@ -7101,8 +7192,22 @@
         <v>1060.21</v>
       </c>
       <c r="AA9" s="34"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="46">
+        <v>1073.46</v>
+      </c>
+      <c r="AC9" s="46">
+        <v>1073.46</v>
+      </c>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="21">
+        <v>1086.8800000000001</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>1086.8800000000001</v>
+      </c>
+      <c r="AG9" s="21"/>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>251</v>
       </c>
@@ -7159,8 +7264,18 @@
       <c r="AA10" s="34">
         <v>3901.68</v>
       </c>
-    </row>
-    <row r="11" spans="3:27" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="46">
+        <v>3950.45</v>
+      </c>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46">
+        <v>3950.45</v>
+      </c>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+    </row>
+    <row r="11" spans="3:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F11" s="27">
         <f>SUM(F4:F10)</f>
         <v>1274.46</v>
@@ -7241,8 +7356,24 @@
         <f>SUM(AA5:AA10)</f>
         <v>4026.17</v>
       </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="27">
+        <f t="shared" ref="AB11" si="5">SUM(AB4:AB10)</f>
+        <v>5157.87</v>
+      </c>
+      <c r="AC11" s="27">
+        <f>SUM(AC4:AC10)</f>
+        <v>1135.07</v>
+      </c>
+      <c r="AD11" s="27">
+        <f>SUM(AD5:AD10)</f>
+        <v>4022.7999999999997</v>
+      </c>
+      <c r="AF11" s="27">
+        <f>SUM(AF4:AF10)</f>
+        <v>1137.1400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>SUM(F4:F10)*12</f>
@@ -7270,7 +7401,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
       <c r="T13">
         <v>3</v>
       </c>
@@ -7280,8 +7411,11 @@
       <c r="Z13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
       <c r="V14" s="45" t="s">
         <v>301</v>
       </c>
@@ -7295,7 +7429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
       <c r="S15">
         <v>5190.54</v>
       </c>
@@ -7307,7 +7441,7 @@
       </c>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>2741.62</v>
       </c>
@@ -7321,7 +7455,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>1055</v>
       </c>
@@ -7336,7 +7470,7 @@
         <v>44433</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:31" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>263</v>
       </c>
@@ -7365,7 +7499,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:31" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>264</v>
       </c>
@@ -7394,7 +7528,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="20" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U20" s="45" t="s">
         <v>278</v>
       </c>
@@ -7402,7 +7536,7 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="21" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U21" s="45" t="s">
         <v>279</v>
       </c>
@@ -7410,7 +7544,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U22" s="45" t="s">
         <v>280</v>
       </c>
@@ -7429,7 +7563,7 @@
         <v>107.28</v>
       </c>
     </row>
-    <row r="23" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U23" s="4" t="s">
         <v>281</v>
       </c>
@@ -7439,25 +7573,36 @@
       <c r="W23">
         <v>1100</v>
       </c>
-      <c r="X23">
-        <v>1050</v>
+      <c r="X23" s="27">
+        <f>SUM(AC4:AC10)</f>
+        <v>1135.07</v>
       </c>
       <c r="Y23">
         <f>SUM(IMSUB(W23,X23),Y22)</f>
-        <v>157.28</v>
-      </c>
-    </row>
-    <row r="24" spans="7:25" x14ac:dyDescent="0.25">
+        <v>72.210000000000093</v>
+      </c>
+    </row>
+    <row r="24" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U24" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="25" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>1137.1400000000001</v>
+      </c>
+      <c r="AE24">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="25" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U25" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="26" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="AE25">
+        <f>PRODUCT(AE24,12)</f>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="26" spans="7:31" x14ac:dyDescent="0.25">
       <c r="U26" s="4" t="s">
         <v>284</v>
       </c>
@@ -7473,7 +7618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -7727,7 +7872,7 @@
   <dimension ref="E6:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
